--- a/check-list.xlsx
+++ b/check-list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>Кейс</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Очеев Александр</t>
+  </si>
+  <si>
+    <t>http://testingcourse.ru/redmine/issues/142</t>
   </si>
 </sst>
 </file>
@@ -340,7 +343,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -367,6 +370,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -384,9 +393,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -694,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,7 +723,7 @@
       <c r="A2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="10">
         <v>42730</v>
       </c>
       <c r="C2" s="9"/>
@@ -727,11 +733,11 @@
       <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -755,11 +761,11 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -786,11 +792,11 @@
       <c r="B11" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -803,7 +809,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -812,14 +818,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -840,11 +846,11 @@
       <c r="B21"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -853,11 +859,11 @@
       <c r="B23" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -878,11 +884,11 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -909,11 +915,11 @@
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -928,11 +934,11 @@
       <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -947,11 +953,11 @@
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -960,11 +966,11 @@
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
@@ -976,11 +982,11 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -998,13 +1004,16 @@
       <c r="A46" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46" s="4"/>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="3"/>
+      <c r="C47" s="11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
@@ -1012,11 +1021,11 @@
       <c r="C48" s="6"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
@@ -1026,7 +1035,7 @@
         <v>54</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="14" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1035,21 +1044,21 @@
         <v>55</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="12"/>
+      <c r="C52" s="14"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="12"/>
+      <c r="C53" s="14"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
@@ -1064,11 +1073,11 @@
       <c r="B57" s="4"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
@@ -1077,11 +1086,11 @@
       <c r="B60" s="4"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
@@ -1114,11 +1123,11 @@
       <c r="B67" s="4"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
@@ -1133,11 +1142,11 @@
       <c r="B71" s="4"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -1153,7 +1162,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A43:C43"/>
@@ -1173,6 +1181,7 @@
     <mergeCell ref="A55:C55"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
